--- a/resources/ukwa/percentiles.xlsx
+++ b/resources/ukwa/percentiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mike\projects\work\wsw-results\resources\ukwa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2104CE8-4EE7-4085-9279-6B959D405E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE58497B-54EF-4608-A6E1-D5B8F5A764F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC2B614C-97CE-4BFB-A796-CE0AF2755093}"/>
   </bookViews>
@@ -3621,7 +3621,7 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.08608</cdr:x>
-      <cdr:y>0.11223</cdr:y>
+      <cdr:y>0.16162</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.97131</cdr:x>
@@ -3640,8 +3640,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="571500" y="476250"/>
-          <a:ext cx="5876925" cy="3200400"/>
+          <a:off x="571479" y="685800"/>
+          <a:ext cx="5876946" cy="2990841"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3971,7 +3971,7 @@
   <dimension ref="A1:K123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4031,19 +4031,19 @@
         <v>2.0199999999999996</v>
       </c>
       <c r="F2" t="str">
-        <f>IF(C2&lt;29,IF(C2&gt;27,E2,""),"")</f>
+        <f t="shared" ref="F2:F65" si="1">IF($C2&lt;29,IF($C2&gt;28,$E2,""),"")</f>
         <v/>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G33" si="1">IF(D2&lt;27,IF(D2&gt;25,F2,""),"")</f>
+        <f t="shared" ref="G2:G65" si="2">IF($C2&lt;27,IF($C2&gt;26,$E2,""),"")</f>
         <v/>
       </c>
       <c r="I2" s="5" t="str">
-        <f t="shared" ref="I2:I65" si="2">IF(C2&gt;28,"Y","")</f>
+        <f t="shared" ref="I2:I33" si="3">IF(C2&gt;=28,"Y","")</f>
         <v/>
       </c>
       <c r="J2" s="5" t="str">
-        <f t="shared" ref="J2:J65" si="3">IF(D2&gt;26,"Y","")</f>
+        <f>IF(D2&gt;=26,"Y","")</f>
         <v/>
       </c>
       <c r="K2" s="5" t="str">
@@ -4069,23 +4069,23 @@
         <v>0.10999999999999943</v>
       </c>
       <c r="F3" t="str">
-        <f>IF(C3&lt;29,IF(C3&gt;27,E3,""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I3" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J3" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J3:J66" si="4">IF(D3&gt;=26,"Y","")</f>
         <v/>
       </c>
       <c r="K3" s="5" t="str">
-        <f t="shared" ref="K3:K66" si="4">IF(I3&lt;&gt;J3,"Y","")</f>
+        <f t="shared" ref="K3:K66" si="5">IF(I3&lt;&gt;J3,"Y","")</f>
         <v/>
       </c>
     </row>
@@ -4107,23 +4107,23 @@
         <v>0.48999999999999844</v>
       </c>
       <c r="F4" t="str">
-        <f>IF(C4&lt;29,IF(C4&gt;27,E4,""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I4" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J4" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K4" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4145,23 +4145,23 @@
         <v>1.8900000000000006</v>
       </c>
       <c r="F5">
-        <f>IF(C5&lt;29,IF(C5&gt;27,E5,""),"")</f>
+        <f t="shared" si="1"/>
         <v>1.8900000000000006</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I5" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(C5&gt;=28,"Y","")</f>
         <v>Y</v>
       </c>
       <c r="J5" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K5" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4183,23 +4183,23 @@
         <v>2.16</v>
       </c>
       <c r="F6" t="str">
-        <f>IF(C6&lt;29,IF(C6&gt;27,E6,""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I6" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I6:I69" si="6">IF(C6&gt;=28,"Y","")</f>
         <v/>
       </c>
       <c r="J6" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K6" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4221,23 +4221,23 @@
         <v>1.0799999999999983</v>
       </c>
       <c r="F7" t="str">
-        <f>IF(C7&lt;29,IF(C7&gt;28,E7,""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I7" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J7" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K7" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4259,23 +4259,23 @@
         <v>1.0700000000000003</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" ref="F8:F39" si="5">IF(C8&lt;29,IF(C8&gt;27,E8,""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I8" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J8" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K8" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4297,23 +4297,23 @@
         <v>1.6500000000000004</v>
       </c>
       <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K9" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I9" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J9" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K9" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4335,23 +4335,23 @@
         <v>1.6300000000000026</v>
       </c>
       <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J10" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K10" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I10" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J10" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K10" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4373,23 +4373,23 @@
         <v>2.3199999999999967</v>
       </c>
       <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>Y</v>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="K11" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I11" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Y</v>
-      </c>
-      <c r="J11" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Y</v>
-      </c>
-      <c r="K11" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4411,23 +4411,23 @@
         <v>1.7100000000000009</v>
       </c>
       <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>Y</v>
+      </c>
+      <c r="J12" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="K12" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I12" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Y</v>
-      </c>
-      <c r="J12" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Y</v>
-      </c>
-      <c r="K12" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4448,24 +4448,24 @@
         <f t="shared" si="0"/>
         <v>1.2799999999999976</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J13" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="K13" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>1.2799999999999976</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>1.2799999999999976</v>
-      </c>
-      <c r="I13" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J13" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Y</v>
-      </c>
-      <c r="K13" s="7" t="str">
-        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
     </row>
@@ -4487,23 +4487,23 @@
         <v>0.79999999999999716</v>
       </c>
       <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J14" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K14" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I14" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J14" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K14" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4525,23 +4525,23 @@
         <v>0.30000000000000071</v>
       </c>
       <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J15" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K15" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I15" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J15" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K15" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4563,23 +4563,23 @@
         <v>1.759999999999998</v>
       </c>
       <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J16" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K16" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I16" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J16" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K16" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4601,23 +4601,23 @@
         <v>0.26999999999999957</v>
       </c>
       <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J17" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K17" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I17" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J17" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K17" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4638,24 +4638,24 @@
         <f t="shared" si="0"/>
         <v>1.9599999999999973</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J18" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K18" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.9599999999999973</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>1.9599999999999973</v>
-      </c>
-      <c r="I18" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J18" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K18" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4677,23 +4677,23 @@
         <v>2.0300000000000011</v>
       </c>
       <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>2.0300000000000011</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J19" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K19" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I19" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J19" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K19" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4715,23 +4715,23 @@
         <v>2.4799999999999969</v>
       </c>
       <c r="F20">
-        <f t="shared" si="5"/>
-        <v>2.4799999999999969</v>
-      </c>
-      <c r="G20">
         <f t="shared" si="1"/>
         <v>2.4799999999999969</v>
       </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="I20" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Y</v>
       </c>
       <c r="J20" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K20" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
     </row>
@@ -4753,23 +4753,23 @@
         <v>2.5199999999999996</v>
       </c>
       <c r="F21">
-        <f t="shared" si="5"/>
-        <v>2.5199999999999996</v>
-      </c>
-      <c r="G21">
         <f t="shared" si="1"/>
         <v>2.5199999999999996</v>
       </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="I21" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Y</v>
       </c>
       <c r="J21" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K21" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4791,23 +4791,23 @@
         <v>2.2100000000000009</v>
       </c>
       <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J22" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K22" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I22" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J22" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K22" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4829,23 +4829,23 @@
         <v>0</v>
       </c>
       <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J23" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K23" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I23" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J23" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K23" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4867,23 +4867,23 @@
         <v>1.8500000000000014</v>
       </c>
       <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>Y</v>
+      </c>
+      <c r="J24" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="K24" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I24" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Y</v>
-      </c>
-      <c r="J24" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Y</v>
-      </c>
-      <c r="K24" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4905,23 +4905,23 @@
         <v>2.009999999999998</v>
       </c>
       <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>2.009999999999998</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J25" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K25" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I25" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J25" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K25" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4943,23 +4943,23 @@
         <v>1.620000000000001</v>
       </c>
       <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J26" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K26" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I26" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J26" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K26" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -4981,23 +4981,23 @@
         <v>1.8500000000000014</v>
       </c>
       <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J27" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K27" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I27" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J27" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K27" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5018,24 +5018,24 @@
         <f t="shared" si="0"/>
         <v>1.0799999999999983</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J28" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="K28" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>1.0799999999999983</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>1.0799999999999983</v>
-      </c>
-      <c r="I28" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J28" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Y</v>
-      </c>
-      <c r="K28" s="7" t="str">
-        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
     </row>
@@ -5057,23 +5057,23 @@
         <v>1.1999999999999993</v>
       </c>
       <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>Y</v>
+      </c>
+      <c r="J29" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="K29" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I29" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Y</v>
-      </c>
-      <c r="J29" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Y</v>
-      </c>
-      <c r="K29" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5095,23 +5095,23 @@
         <v>1.5700000000000003</v>
       </c>
       <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>1.5700000000000003</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J30" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K30" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I30" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J30" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K30" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5133,23 +5133,23 @@
         <v>1.5700000000000003</v>
       </c>
       <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>Y</v>
+      </c>
+      <c r="J31" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="K31" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I31" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Y</v>
-      </c>
-      <c r="J31" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Y</v>
-      </c>
-      <c r="K31" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5170,24 +5170,24 @@
         <f t="shared" si="0"/>
         <v>2.2699999999999996</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J32" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K32" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>2.2699999999999996</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
-        <v>2.2699999999999996</v>
-      </c>
-      <c r="I32" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J32" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K32" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5208,24 +5208,24 @@
         <f t="shared" si="0"/>
         <v>1.9400000000000013</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J33" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K33" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>1.9400000000000013</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>1.9400000000000013</v>
-      </c>
-      <c r="I33" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J33" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K33" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5243,27 +5243,27 @@
         <v>28.98</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" si="6">C34-D34</f>
+        <f t="shared" ref="E34:E65" si="7">C34-D34</f>
         <v>2.120000000000001</v>
       </c>
       <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I34" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>Y</v>
+      </c>
+      <c r="J34" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="K34" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" ref="G34:G65" si="7">IF(D34&lt;27,IF(D34&gt;25,F34,""),"")</f>
-        <v/>
-      </c>
-      <c r="I34" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Y</v>
-      </c>
-      <c r="J34" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Y</v>
-      </c>
-      <c r="K34" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5281,27 +5281,27 @@
         <v>28.28</v>
       </c>
       <c r="E35">
+        <f t="shared" si="7"/>
+        <v>2.1099999999999994</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I35" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>2.1099999999999994</v>
-      </c>
-      <c r="F35" t="str">
+        <v>Y</v>
+      </c>
+      <c r="J35" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="K35" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I35" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Y</v>
-      </c>
-      <c r="J35" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Y</v>
-      </c>
-      <c r="K35" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5319,27 +5319,27 @@
         <v>29.24</v>
       </c>
       <c r="E36">
+        <f t="shared" si="7"/>
+        <v>1.1800000000000033</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I36" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>1.1800000000000033</v>
-      </c>
-      <c r="F36" t="str">
+        <v>Y</v>
+      </c>
+      <c r="J36" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="K36" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I36" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Y</v>
-      </c>
-      <c r="J36" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Y</v>
-      </c>
-      <c r="K36" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5357,27 +5357,27 @@
         <v>28.93</v>
       </c>
       <c r="E37">
+        <f t="shared" si="7"/>
+        <v>2.0599999999999987</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I37" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>2.0599999999999987</v>
-      </c>
-      <c r="F37" t="str">
+        <v>Y</v>
+      </c>
+      <c r="J37" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="K37" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I37" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Y</v>
-      </c>
-      <c r="J37" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Y</v>
-      </c>
-      <c r="K37" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5395,27 +5395,27 @@
         <v>29.54</v>
       </c>
       <c r="E38">
+        <f t="shared" si="7"/>
+        <v>2.2300000000000004</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I38" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>2.2300000000000004</v>
-      </c>
-      <c r="F38" t="str">
+        <v>Y</v>
+      </c>
+      <c r="J38" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="K38" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I38" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Y</v>
-      </c>
-      <c r="J38" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Y</v>
-      </c>
-      <c r="K38" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5433,27 +5433,27 @@
         <v>27.61</v>
       </c>
       <c r="E39">
+        <f t="shared" si="7"/>
+        <v>2.5500000000000007</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I39" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>2.5500000000000007</v>
-      </c>
-      <c r="F39" t="str">
+        <v>Y</v>
+      </c>
+      <c r="J39" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Y</v>
+      </c>
+      <c r="K39" s="5" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I39" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Y</v>
-      </c>
-      <c r="J39" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Y</v>
-      </c>
-      <c r="K39" s="5" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5471,27 +5471,27 @@
         <v>24.43</v>
       </c>
       <c r="E40">
+        <f t="shared" si="7"/>
+        <v>0.83999999999999986</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I40" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>0.83999999999999986</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" ref="F40:F71" si="8">IF(C40&lt;29,IF(C40&gt;27,E40,""),"")</f>
-        <v/>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I40" s="5" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J40" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K40" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5509,27 +5509,27 @@
         <v>21.97</v>
       </c>
       <c r="E41">
+        <f t="shared" si="7"/>
+        <v>0.15000000000000213</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I41" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>0.15000000000000213</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I41" s="5" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J41" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K41" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5547,27 +5547,27 @@
         <v>28.59</v>
       </c>
       <c r="E42">
+        <f t="shared" si="7"/>
+        <v>2.2800000000000011</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I42" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>2.2800000000000011</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I42" s="5" t="str">
-        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="J42" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K42" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5585,27 +5585,27 @@
         <v>27.56</v>
       </c>
       <c r="E43">
+        <f t="shared" si="7"/>
+        <v>1.4000000000000021</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000021</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I43" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>1.4000000000000021</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="8"/>
-        <v>1.4000000000000021</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I43" s="5" t="str">
-        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="J43" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K43" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5623,27 +5623,27 @@
         <v>3.67</v>
       </c>
       <c r="E44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I44" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I44" s="5" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J44" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K44" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5661,27 +5661,27 @@
         <v>25.62</v>
       </c>
       <c r="E45">
+        <f t="shared" si="7"/>
+        <v>0.28999999999999915</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I45" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>0.28999999999999915</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I45" s="5" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J45" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K45" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5699,27 +5699,27 @@
         <v>22.48</v>
       </c>
       <c r="E46">
+        <f t="shared" si="7"/>
+        <v>1.9800000000000004</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I46" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>1.9800000000000004</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I46" s="5" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J46" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K46" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5737,27 +5737,27 @@
         <v>26.35</v>
       </c>
       <c r="E47">
-        <f t="shared" si="6"/>
-        <v>2.2699999999999996</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="8"/>
-        <v>2.2699999999999996</v>
-      </c>
-      <c r="G47">
         <f t="shared" si="7"/>
         <v>2.2699999999999996</v>
       </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>2.2699999999999996</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="I47" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Y</v>
       </c>
       <c r="J47" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K47" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5775,27 +5775,27 @@
         <v>26.21</v>
       </c>
       <c r="E48">
-        <f t="shared" si="6"/>
-        <v>1.3200000000000003</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="8"/>
-        <v>1.3200000000000003</v>
-      </c>
-      <c r="G48">
         <f t="shared" si="7"/>
         <v>1.3200000000000003</v>
       </c>
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="I48" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J48" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K48" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Y</v>
       </c>
     </row>
@@ -5813,27 +5813,27 @@
         <v>20.07</v>
       </c>
       <c r="E49">
+        <f t="shared" si="7"/>
+        <v>0.87999999999999901</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I49" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>0.87999999999999901</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I49" s="5" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J49" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K49" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5851,27 +5851,27 @@
         <v>23.5</v>
       </c>
       <c r="E50">
+        <f t="shared" si="7"/>
+        <v>1.4299999999999997</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I50" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>1.4299999999999997</v>
-      </c>
-      <c r="F50" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I50" s="5" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J50" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K50" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5889,27 +5889,27 @@
         <v>26.7</v>
       </c>
       <c r="E51">
+        <f t="shared" si="7"/>
+        <v>3.1099999999999994</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I51" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>3.1099999999999994</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I51" s="5" t="str">
-        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="J51" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K51" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5927,27 +5927,27 @@
         <v>28.97</v>
       </c>
       <c r="E52">
+        <f t="shared" si="7"/>
+        <v>0.91000000000000014</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I52" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>0.91000000000000014</v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I52" s="5" t="str">
-        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="J52" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K52" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5965,27 +5965,27 @@
         <v>19.12</v>
       </c>
       <c r="E53">
+        <f t="shared" si="7"/>
+        <v>0.98000000000000043</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I53" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>0.98000000000000043</v>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G53" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I53" s="5" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J53" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K53" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6003,27 +6003,27 @@
         <v>17.97</v>
       </c>
       <c r="E54">
+        <f t="shared" si="7"/>
+        <v>2.370000000000001</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I54" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>2.370000000000001</v>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G54" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I54" s="5" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J54" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K54" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6041,27 +6041,27 @@
         <v>19.77</v>
       </c>
       <c r="E55">
+        <f t="shared" si="7"/>
+        <v>2.2300000000000004</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I55" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>2.2300000000000004</v>
-      </c>
-      <c r="F55" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I55" s="5" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J55" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K55" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6079,27 +6079,27 @@
         <v>18.04</v>
       </c>
       <c r="E56">
+        <f t="shared" si="7"/>
+        <v>0.42999999999999972</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I56" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>0.42999999999999972</v>
-      </c>
-      <c r="F56" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G56" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I56" s="5" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J56" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K56" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6117,27 +6117,27 @@
         <v>22.82</v>
       </c>
       <c r="E57">
+        <f t="shared" si="7"/>
+        <v>2.41</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I57" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>2.41</v>
-      </c>
-      <c r="F57" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G57" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I57" s="5" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J57" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K57" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6155,27 +6155,27 @@
         <v>23.5</v>
       </c>
       <c r="E58">
+        <f t="shared" si="7"/>
+        <v>2.09</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I58" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>2.09</v>
-      </c>
-      <c r="F58" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G58" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I58" s="5" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J58" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K58" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6193,27 +6193,27 @@
         <v>25.58</v>
       </c>
       <c r="E59">
-        <f t="shared" si="6"/>
-        <v>2.2000000000000028</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="8"/>
-        <v>2.2000000000000028</v>
-      </c>
-      <c r="G59">
         <f t="shared" si="7"/>
         <v>2.2000000000000028</v>
       </c>
+      <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="I59" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J59" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K59" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6231,27 +6231,27 @@
         <v>24.41</v>
       </c>
       <c r="E60">
+        <f t="shared" si="7"/>
+        <v>2.4600000000000009</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>2.4600000000000009</v>
+      </c>
+      <c r="I60" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>2.4600000000000009</v>
-      </c>
-      <c r="F60" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G60" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I60" s="5" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J60" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K60" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6269,27 +6269,27 @@
         <v>23.88</v>
       </c>
       <c r="E61">
+        <f t="shared" si="7"/>
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I61" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>3.3200000000000003</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="8"/>
-        <v>3.3200000000000003</v>
-      </c>
-      <c r="G61" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I61" s="5" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J61" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K61" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6307,27 +6307,27 @@
         <v>26.7</v>
       </c>
       <c r="E62">
-        <f t="shared" si="6"/>
-        <v>1.7899999999999991</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="8"/>
-        <v>1.7899999999999991</v>
-      </c>
-      <c r="G62">
         <f t="shared" si="7"/>
         <v>1.7899999999999991</v>
       </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>1.7899999999999991</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="I62" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Y</v>
       </c>
       <c r="J62" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K62" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6345,27 +6345,27 @@
         <v>24.01</v>
       </c>
       <c r="E63">
+        <f t="shared" si="7"/>
+        <v>1.1499999999999986</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I63" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>1.1499999999999986</v>
-      </c>
-      <c r="F63" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G63" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I63" s="5" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J63" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K63" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6383,27 +6383,27 @@
         <v>23.35</v>
       </c>
       <c r="E64">
+        <f t="shared" si="7"/>
+        <v>2.0599999999999987</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I64" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>2.0599999999999987</v>
-      </c>
-      <c r="F64" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G64" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I64" s="5" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J64" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K64" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6421,27 +6421,27 @@
         <v>33.25</v>
       </c>
       <c r="E65">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I65" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F65" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G65" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I65" s="5" t="str">
-        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="J65" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K65" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6459,27 +6459,27 @@
         <v>30.94</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E97" si="9">C66-D66</f>
+        <f t="shared" ref="E66:E97" si="8">C66-D66</f>
         <v>2.7399999999999984</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F66:F116" si="9">IF($C66&lt;29,IF($C66&gt;28,$E66,""),"")</f>
         <v/>
       </c>
       <c r="G66" t="str">
-        <f t="shared" ref="G66:G97" si="10">IF(D66&lt;27,IF(D66&gt;25,F66,""),"")</f>
+        <f t="shared" ref="G66:G116" si="10">IF($C66&lt;27,IF($C66&gt;26,$E66,""),"")</f>
         <v/>
       </c>
       <c r="I66" s="5" t="str">
-        <f t="shared" ref="I66:I116" si="11">IF(C66&gt;28,"Y","")</f>
+        <f t="shared" si="6"/>
         <v>Y</v>
       </c>
       <c r="J66" s="5" t="str">
-        <f t="shared" ref="J66:J116" si="12">IF(D66&gt;26,"Y","")</f>
+        <f t="shared" si="4"/>
         <v>Y</v>
       </c>
       <c r="K66" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6497,11 +6497,11 @@
         <v>19.38</v>
       </c>
       <c r="E67">
+        <f t="shared" si="8"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="F67" t="str">
         <f t="shared" si="9"/>
-        <v>1.6000000000000014</v>
-      </c>
-      <c r="F67" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G67" t="str">
@@ -6509,15 +6509,15 @@
         <v/>
       </c>
       <c r="I67" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J67" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="J67:J118" si="11">IF(D67&gt;=26,"Y","")</f>
         <v/>
       </c>
       <c r="K67" s="5" t="str">
-        <f t="shared" ref="K67:K117" si="13">IF(I67&lt;&gt;J67,"Y","")</f>
+        <f t="shared" ref="K67:K117" si="12">IF(I67&lt;&gt;J67,"Y","")</f>
         <v/>
       </c>
     </row>
@@ -6535,27 +6535,27 @@
         <v>26.73</v>
       </c>
       <c r="E68">
+        <f t="shared" si="8"/>
+        <v>1.9299999999999997</v>
+      </c>
+      <c r="F68">
         <f t="shared" si="9"/>
         <v>1.9299999999999997</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="8"/>
-        <v>1.9299999999999997</v>
-      </c>
-      <c r="G68">
+      <c r="G68" t="str">
         <f t="shared" si="10"/>
-        <v>1.9299999999999997</v>
+        <v/>
       </c>
       <c r="I68" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>Y</v>
+      </c>
+      <c r="J68" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J68" s="5" t="str">
+      <c r="K68" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K68" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -6573,11 +6573,11 @@
         <v>21.99</v>
       </c>
       <c r="E69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F69" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F69" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G69" t="str">
@@ -6585,15 +6585,15 @@
         <v/>
       </c>
       <c r="I69" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J69" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J69" s="5" t="str">
+      <c r="K69" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K69" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -6611,11 +6611,11 @@
         <v>30.81</v>
       </c>
       <c r="E70">
+        <f t="shared" si="8"/>
+        <v>3.41</v>
+      </c>
+      <c r="F70" t="str">
         <f t="shared" si="9"/>
-        <v>3.41</v>
-      </c>
-      <c r="F70" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G70" t="str">
@@ -6623,15 +6623,15 @@
         <v/>
       </c>
       <c r="I70" s="5" t="str">
+        <f t="shared" ref="I70:I118" si="13">IF(C70&gt;=28,"Y","")</f>
+        <v>Y</v>
+      </c>
+      <c r="J70" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J70" s="5" t="str">
+      <c r="K70" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K70" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -6649,11 +6649,11 @@
         <v>27.87</v>
       </c>
       <c r="E71">
+        <f t="shared" si="8"/>
+        <v>2.2099999999999973</v>
+      </c>
+      <c r="F71" t="str">
         <f t="shared" si="9"/>
-        <v>2.2099999999999973</v>
-      </c>
-      <c r="F71" t="str">
-        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G71" t="str">
@@ -6661,15 +6661,15 @@
         <v/>
       </c>
       <c r="I71" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J71" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J71" s="5" t="str">
+      <c r="K71" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K71" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -6687,11 +6687,11 @@
         <v>26.11</v>
       </c>
       <c r="E72">
+        <f t="shared" si="8"/>
+        <v>3.1400000000000006</v>
+      </c>
+      <c r="F72" t="str">
         <f t="shared" si="9"/>
-        <v>3.1400000000000006</v>
-      </c>
-      <c r="F72" t="str">
-        <f t="shared" ref="F72:F103" si="14">IF(C72&lt;29,IF(C72&gt;27,E72,""),"")</f>
         <v/>
       </c>
       <c r="G72" t="str">
@@ -6699,15 +6699,15 @@
         <v/>
       </c>
       <c r="I72" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J72" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J72" s="5" t="str">
+      <c r="K72" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K72" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -6725,11 +6725,11 @@
         <v>28.12</v>
       </c>
       <c r="E73">
+        <f t="shared" si="8"/>
+        <v>2.129999999999999</v>
+      </c>
+      <c r="F73" t="str">
         <f t="shared" si="9"/>
-        <v>2.129999999999999</v>
-      </c>
-      <c r="F73" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G73" t="str">
@@ -6737,15 +6737,15 @@
         <v/>
       </c>
       <c r="I73" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J73" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J73" s="5" t="str">
+      <c r="K73" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K73" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -6763,11 +6763,11 @@
         <v>24.05</v>
       </c>
       <c r="E74">
+        <f t="shared" si="8"/>
+        <v>1.5299999999999976</v>
+      </c>
+      <c r="F74" t="str">
         <f t="shared" si="9"/>
-        <v>1.5299999999999976</v>
-      </c>
-      <c r="F74" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G74" t="str">
@@ -6775,15 +6775,15 @@
         <v/>
       </c>
       <c r="I74" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J74" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J74" s="5" t="str">
+      <c r="K74" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K74" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -6801,11 +6801,11 @@
         <v>28.83</v>
       </c>
       <c r="E75">
+        <f t="shared" si="8"/>
+        <v>1.5500000000000007</v>
+      </c>
+      <c r="F75" t="str">
         <f t="shared" si="9"/>
-        <v>1.5500000000000007</v>
-      </c>
-      <c r="F75" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G75" t="str">
@@ -6813,15 +6813,15 @@
         <v/>
       </c>
       <c r="I75" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J75" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J75" s="5" t="str">
+      <c r="K75" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K75" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -6839,27 +6839,27 @@
         <v>24.17</v>
       </c>
       <c r="E76">
+        <f t="shared" si="8"/>
+        <v>2.1699999999999982</v>
+      </c>
+      <c r="F76" t="str">
         <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G76">
+        <f t="shared" si="10"/>
         <v>2.1699999999999982</v>
       </c>
-      <c r="F76" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G76" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
       <c r="I76" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J76" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J76" s="5" t="str">
+      <c r="K76" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K76" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -6877,11 +6877,11 @@
         <v>13.06</v>
       </c>
       <c r="E77">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F77" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F77" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G77" t="str">
@@ -6889,15 +6889,15 @@
         <v/>
       </c>
       <c r="I77" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J77" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J77" s="5" t="str">
+      <c r="K77" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K77" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -6915,11 +6915,11 @@
         <v>22.28</v>
       </c>
       <c r="E78">
+        <f t="shared" si="8"/>
+        <v>1.3999999999999986</v>
+      </c>
+      <c r="F78" t="str">
         <f t="shared" si="9"/>
-        <v>1.3999999999999986</v>
-      </c>
-      <c r="F78" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G78" t="str">
@@ -6927,15 +6927,15 @@
         <v/>
       </c>
       <c r="I78" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J78" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J78" s="5" t="str">
+      <c r="K78" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K78" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -6953,27 +6953,27 @@
         <v>26.1</v>
       </c>
       <c r="E79">
+        <f t="shared" si="8"/>
+        <v>2.5199999999999996</v>
+      </c>
+      <c r="F79">
         <f t="shared" si="9"/>
         <v>2.5199999999999996</v>
       </c>
-      <c r="F79">
-        <f t="shared" si="14"/>
-        <v>2.5199999999999996</v>
-      </c>
-      <c r="G79">
+      <c r="G79" t="str">
         <f t="shared" si="10"/>
-        <v>2.5199999999999996</v>
+        <v/>
       </c>
       <c r="I79" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J79" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J79" s="5" t="str">
+      <c r="K79" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K79" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -6991,11 +6991,11 @@
         <v>17.579999999999998</v>
       </c>
       <c r="E80">
+        <f t="shared" si="8"/>
+        <v>2.0300000000000011</v>
+      </c>
+      <c r="F80" t="str">
         <f t="shared" si="9"/>
-        <v>2.0300000000000011</v>
-      </c>
-      <c r="F80" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G80" t="str">
@@ -7003,15 +7003,15 @@
         <v/>
       </c>
       <c r="I80" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J80" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J80" s="5" t="str">
+      <c r="K80" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K80" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7029,11 +7029,11 @@
         <v>29.98</v>
       </c>
       <c r="E81">
+        <f t="shared" si="8"/>
+        <v>1.2199999999999989</v>
+      </c>
+      <c r="F81" t="str">
         <f t="shared" si="9"/>
-        <v>1.2199999999999989</v>
-      </c>
-      <c r="F81" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G81" t="str">
@@ -7041,15 +7041,15 @@
         <v/>
       </c>
       <c r="I81" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J81" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J81" s="5" t="str">
+      <c r="K81" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K81" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7067,11 +7067,11 @@
         <v>29</v>
       </c>
       <c r="E82">
+        <f t="shared" si="8"/>
+        <v>1.5199999999999996</v>
+      </c>
+      <c r="F82" t="str">
         <f t="shared" si="9"/>
-        <v>1.5199999999999996</v>
-      </c>
-      <c r="F82" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G82" t="str">
@@ -7079,15 +7079,15 @@
         <v/>
       </c>
       <c r="I82" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J82" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J82" s="5" t="str">
+      <c r="K82" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K82" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7105,11 +7105,11 @@
         <v>31.64</v>
       </c>
       <c r="E83">
+        <f t="shared" si="8"/>
+        <v>2.3500000000000014</v>
+      </c>
+      <c r="F83" t="str">
         <f t="shared" si="9"/>
-        <v>2.3500000000000014</v>
-      </c>
-      <c r="F83" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G83" t="str">
@@ -7117,15 +7117,15 @@
         <v/>
       </c>
       <c r="I83" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J83" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J83" s="5" t="str">
+      <c r="K83" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K83" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7143,11 +7143,11 @@
         <v>31.82</v>
       </c>
       <c r="E84">
+        <f t="shared" si="8"/>
+        <v>1.7299999999999969</v>
+      </c>
+      <c r="F84" t="str">
         <f t="shared" si="9"/>
-        <v>1.7299999999999969</v>
-      </c>
-      <c r="F84" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G84" t="str">
@@ -7155,15 +7155,15 @@
         <v/>
       </c>
       <c r="I84" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J84" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J84" s="5" t="str">
+      <c r="K84" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K84" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7181,11 +7181,11 @@
         <v>30.18</v>
       </c>
       <c r="E85">
+        <f t="shared" si="8"/>
+        <v>2.0300000000000011</v>
+      </c>
+      <c r="F85" t="str">
         <f t="shared" si="9"/>
-        <v>2.0300000000000011</v>
-      </c>
-      <c r="F85" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G85" t="str">
@@ -7193,15 +7193,15 @@
         <v/>
       </c>
       <c r="I85" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J85" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J85" s="5" t="str">
+      <c r="K85" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K85" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7219,11 +7219,11 @@
         <v>29.46</v>
       </c>
       <c r="E86">
+        <f t="shared" si="8"/>
+        <v>1.9800000000000004</v>
+      </c>
+      <c r="F86" t="str">
         <f t="shared" si="9"/>
-        <v>1.9800000000000004</v>
-      </c>
-      <c r="F86" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G86" t="str">
@@ -7231,15 +7231,15 @@
         <v/>
       </c>
       <c r="I86" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J86" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J86" s="5" t="str">
+      <c r="K86" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K86" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7257,11 +7257,11 @@
         <v>29.25</v>
       </c>
       <c r="E87">
+        <f t="shared" si="8"/>
+        <v>1.6400000000000006</v>
+      </c>
+      <c r="F87" t="str">
         <f t="shared" si="9"/>
-        <v>1.6400000000000006</v>
-      </c>
-      <c r="F87" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G87" t="str">
@@ -7269,15 +7269,15 @@
         <v/>
       </c>
       <c r="I87" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J87" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J87" s="5" t="str">
+      <c r="K87" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K87" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7295,11 +7295,11 @@
         <v>31.74</v>
       </c>
       <c r="E88">
+        <f t="shared" si="8"/>
+        <v>1.0199999999999996</v>
+      </c>
+      <c r="F88" t="str">
         <f t="shared" si="9"/>
-        <v>1.0199999999999996</v>
-      </c>
-      <c r="F88" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G88" t="str">
@@ -7307,15 +7307,15 @@
         <v/>
       </c>
       <c r="I88" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J88" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J88" s="5" t="str">
+      <c r="K88" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K88" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7333,11 +7333,11 @@
         <v>30.5</v>
       </c>
       <c r="E89">
+        <f t="shared" si="8"/>
+        <v>1.3200000000000003</v>
+      </c>
+      <c r="F89" t="str">
         <f t="shared" si="9"/>
-        <v>1.3200000000000003</v>
-      </c>
-      <c r="F89" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G89" t="str">
@@ -7345,15 +7345,15 @@
         <v/>
       </c>
       <c r="I89" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J89" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J89" s="5" t="str">
+      <c r="K89" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K89" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7371,11 +7371,11 @@
         <v>29.86</v>
       </c>
       <c r="E90">
+        <f t="shared" si="8"/>
+        <v>2.759999999999998</v>
+      </c>
+      <c r="F90" t="str">
         <f t="shared" si="9"/>
-        <v>2.759999999999998</v>
-      </c>
-      <c r="F90" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G90" t="str">
@@ -7383,15 +7383,15 @@
         <v/>
       </c>
       <c r="I90" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J90" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J90" s="5" t="str">
+      <c r="K90" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K90" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7409,11 +7409,11 @@
         <v>33.46</v>
       </c>
       <c r="E91">
+        <f t="shared" si="8"/>
+        <v>2.9299999999999997</v>
+      </c>
+      <c r="F91" t="str">
         <f t="shared" si="9"/>
-        <v>2.9299999999999997</v>
-      </c>
-      <c r="F91" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G91" t="str">
@@ -7421,15 +7421,15 @@
         <v/>
       </c>
       <c r="I91" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J91" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J91" s="5" t="str">
+      <c r="K91" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K91" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7447,11 +7447,11 @@
         <v>32.950000000000003</v>
       </c>
       <c r="E92">
+        <f t="shared" si="8"/>
+        <v>2.519999999999996</v>
+      </c>
+      <c r="F92" t="str">
         <f t="shared" si="9"/>
-        <v>2.519999999999996</v>
-      </c>
-      <c r="F92" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G92" t="str">
@@ -7459,15 +7459,15 @@
         <v/>
       </c>
       <c r="I92" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J92" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J92" s="5" t="str">
+      <c r="K92" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K92" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7485,11 +7485,11 @@
         <v>21.35</v>
       </c>
       <c r="E93">
+        <f t="shared" si="8"/>
+        <v>2.4599999999999973</v>
+      </c>
+      <c r="F93" t="str">
         <f t="shared" si="9"/>
-        <v>2.4599999999999973</v>
-      </c>
-      <c r="F93" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G93" t="str">
@@ -7497,15 +7497,15 @@
         <v/>
       </c>
       <c r="I93" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J93" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J93" s="5" t="str">
+      <c r="K93" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K93" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7523,11 +7523,11 @@
         <v>20.170000000000002</v>
       </c>
       <c r="E94">
+        <f t="shared" si="8"/>
+        <v>1.7099999999999973</v>
+      </c>
+      <c r="F94" t="str">
         <f t="shared" si="9"/>
-        <v>1.7099999999999973</v>
-      </c>
-      <c r="F94" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G94" t="str">
@@ -7535,15 +7535,15 @@
         <v/>
       </c>
       <c r="I94" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J94" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J94" s="5" t="str">
+      <c r="K94" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K94" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7561,11 +7561,11 @@
         <v>19.87</v>
       </c>
       <c r="E95">
+        <f t="shared" si="8"/>
+        <v>3.75</v>
+      </c>
+      <c r="F95" t="str">
         <f t="shared" si="9"/>
-        <v>3.75</v>
-      </c>
-      <c r="F95" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G95" t="str">
@@ -7573,15 +7573,15 @@
         <v/>
       </c>
       <c r="I95" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J95" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J95" s="5" t="str">
+      <c r="K95" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K95" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7599,11 +7599,11 @@
         <v>18.77</v>
       </c>
       <c r="E96">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="F96" t="str">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="F96" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G96" t="str">
@@ -7611,15 +7611,15 @@
         <v/>
       </c>
       <c r="I96" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J96" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J96" s="5" t="str">
+      <c r="K96" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K96" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7637,11 +7637,11 @@
         <v>18.25</v>
       </c>
       <c r="E97">
+        <f t="shared" si="8"/>
+        <v>4.57</v>
+      </c>
+      <c r="F97" t="str">
         <f t="shared" si="9"/>
-        <v>4.57</v>
-      </c>
-      <c r="F97" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G97" t="str">
@@ -7649,15 +7649,15 @@
         <v/>
       </c>
       <c r="I97" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J97" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J97" s="5" t="str">
+      <c r="K97" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K97" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7675,27 +7675,27 @@
         <v>26.94</v>
       </c>
       <c r="E98">
-        <f t="shared" ref="E98:E129" si="15">C98-D98</f>
+        <f t="shared" ref="E98:E108" si="14">C98-D98</f>
         <v>3.2799999999999976</v>
       </c>
       <c r="F98" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G98" t="str">
-        <f t="shared" ref="G98:G129" si="16">IF(D98&lt;27,IF(D98&gt;25,F98,""),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I98" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J98" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J98" s="5" t="str">
+      <c r="K98" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K98" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7713,27 +7713,27 @@
         <v>29.89</v>
       </c>
       <c r="E99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2.09</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I99" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J99" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J99" s="5" t="str">
+      <c r="K99" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K99" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7751,27 +7751,27 @@
         <v>24.91</v>
       </c>
       <c r="E100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.9299999999999997</v>
       </c>
       <c r="F100" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G100" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G100">
+        <f t="shared" si="10"/>
+        <v>1.9299999999999997</v>
       </c>
       <c r="I100" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J100" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J100" s="5" t="str">
+      <c r="K100" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K100" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7789,27 +7789,27 @@
         <v>24.63</v>
       </c>
       <c r="E101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.1400000000000006</v>
       </c>
       <c r="F101" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I101" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J101" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J101" s="5" t="str">
+      <c r="K101" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K101" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7827,27 +7827,27 @@
         <v>22.76</v>
       </c>
       <c r="E102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.41000000000000014</v>
       </c>
       <c r="F102" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I102" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J102" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J102" s="5" t="str">
+      <c r="K102" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K102" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7865,27 +7865,27 @@
         <v>26.1</v>
       </c>
       <c r="E103">
-        <f t="shared" si="15"/>
-        <v>1.629999999999999</v>
-      </c>
-      <c r="F103">
         <f t="shared" si="14"/>
         <v>1.629999999999999</v>
       </c>
-      <c r="G103">
-        <f t="shared" si="16"/>
-        <v>1.629999999999999</v>
+      <c r="F103" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="I103" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J103" s="5" t="str">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="J103" s="5" t="str">
+        <v>Y</v>
+      </c>
+      <c r="K103" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K103" s="7" t="str">
-        <f t="shared" si="13"/>
         <v>Y</v>
       </c>
     </row>
@@ -7903,27 +7903,27 @@
         <v>24.05</v>
       </c>
       <c r="E104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6.5</v>
       </c>
       <c r="F104" t="str">
-        <f t="shared" ref="F104:F135" si="17">IF(C104&lt;29,IF(C104&gt;27,E104,""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I104" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J104" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>Y</v>
-      </c>
-      <c r="J104" s="5" t="str">
+        <v/>
+      </c>
+      <c r="K104" s="8" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K104" s="8" t="str">
-        <f t="shared" si="13"/>
         <v>Y</v>
       </c>
     </row>
@@ -7941,27 +7941,27 @@
         <v>26.64</v>
       </c>
       <c r="E105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3.2100000000000009</v>
       </c>
       <c r="F105" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I105" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J105" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J105" s="5" t="str">
+      <c r="K105" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K105" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7979,27 +7979,27 @@
         <v>27.46</v>
       </c>
       <c r="E106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3.7300000000000004</v>
       </c>
       <c r="F106" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I106" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J106" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J106" s="5" t="str">
+      <c r="K106" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K106" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -8017,27 +8017,27 @@
         <v>28.89</v>
       </c>
       <c r="E107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3.009999999999998</v>
       </c>
       <c r="F107" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I107" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J107" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J107" s="5" t="str">
+      <c r="K107" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K107" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -8055,27 +8055,27 @@
         <v>21.88</v>
       </c>
       <c r="E108">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.92000000000000171</v>
       </c>
       <c r="F108" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I108" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J108" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J108" s="5" t="str">
+      <c r="K108" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K108" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -8092,16 +8092,24 @@
       <c r="D109">
         <v>22.05</v>
       </c>
+      <c r="F109" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="I109" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J109" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J109" s="5" t="str">
+      <c r="K109" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K109" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -8119,27 +8127,27 @@
         <v>24.15</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110:E117" si="18">C110-D110</f>
+        <f t="shared" ref="E110:E117" si="15">C110-D110</f>
         <v>0.86000000000000298</v>
       </c>
       <c r="F110" t="str">
-        <f t="shared" ref="F110:F117" si="19">IF(C110&lt;29,IF(C110&gt;27,E110,""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G110" t="str">
-        <f t="shared" ref="G110:G117" si="20">IF(D110&lt;27,IF(D110&gt;25,F110,""),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I110" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J110" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J110" s="5" t="str">
+      <c r="K110" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K110" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -8157,27 +8165,27 @@
         <v>22.61</v>
       </c>
       <c r="E111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1.2699999999999996</v>
       </c>
       <c r="F111" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I111" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J111" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J111" s="5" t="str">
+      <c r="K111" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K111" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -8195,27 +8203,27 @@
         <v>25.66</v>
       </c>
       <c r="E112">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1.0599999999999987</v>
       </c>
       <c r="F112" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="G112" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G112">
+        <f t="shared" si="10"/>
+        <v>1.0599999999999987</v>
       </c>
       <c r="I112" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J112" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J112" s="5" t="str">
+      <c r="K112" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K112" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -8233,27 +8241,27 @@
         <v>26.44</v>
       </c>
       <c r="E113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1.1600000000000001</v>
       </c>
-      <c r="F113">
-        <f t="shared" si="19"/>
-        <v>1.1600000000000001</v>
-      </c>
-      <c r="G113">
-        <f t="shared" si="20"/>
-        <v>1.1600000000000001</v>
+      <c r="F113" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="I113" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J113" s="5" t="str">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="J113" s="5" t="str">
+        <v>Y</v>
+      </c>
+      <c r="K113" s="7" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K113" s="7" t="str">
-        <f t="shared" si="13"/>
         <v>Y</v>
       </c>
     </row>
@@ -8271,27 +8279,27 @@
         <v>24.11</v>
       </c>
       <c r="E114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2.5800000000000018</v>
       </c>
       <c r="F114" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="G114" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G114">
+        <f t="shared" si="10"/>
+        <v>2.5800000000000018</v>
       </c>
       <c r="I114" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J114" s="5" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="J114" s="5" t="str">
+      <c r="K114" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K114" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -8309,27 +8317,27 @@
         <v>27.13</v>
       </c>
       <c r="E115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1.9499999999999993</v>
       </c>
       <c r="F115" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G115" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I115" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J115" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J115" s="5" t="str">
+      <c r="K115" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K115" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -8347,27 +8355,27 @@
         <v>29.74</v>
       </c>
       <c r="E116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1.3399999999999999</v>
       </c>
       <c r="F116" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G116" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I116" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
+      <c r="J116" s="5" t="str">
         <f t="shared" si="11"/>
         <v>Y</v>
       </c>
-      <c r="J116" s="5" t="str">
+      <c r="K116" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>Y</v>
-      </c>
-      <c r="K116" s="5" t="str">
-        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -8385,27 +8393,27 @@
         <v>30.06</v>
       </c>
       <c r="E117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2.3300000000000018</v>
       </c>
       <c r="F117" t="str">
-        <f t="shared" si="19"/>
+        <f>IF($C117&lt;29,IF($C117&gt;28,$E117,""),"")</f>
         <v/>
       </c>
       <c r="G117" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($C117&lt;27,IF($C117&gt;26,$E117,""),"")</f>
         <v/>
       </c>
       <c r="I117" s="5" t="str">
-        <f>IF(C117&gt;28,"Y","")</f>
+        <f t="shared" si="13"/>
         <v>Y</v>
       </c>
       <c r="J117" s="5" t="str">
-        <f>IF(D117&gt;26,"Y","")</f>
+        <f t="shared" si="11"/>
         <v>Y</v>
       </c>
       <c r="K117" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -8418,12 +8426,12 @@
         <v>115</v>
       </c>
       <c r="F118" s="4">
-        <f t="shared" ref="F118:G118" si="21">COUNT(F$2:F$117)</f>
-        <v>18</v>
+        <f t="shared" ref="F118:J118" si="16">COUNT(F$2:F$117)</f>
+        <v>8</v>
       </c>
       <c r="G118" s="4">
-        <f t="shared" si="21"/>
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>8</v>
       </c>
       <c r="I118" s="4">
         <f>COUNTIF(I$2:I$117,"Y")</f>
@@ -8448,11 +8456,11 @@
       </c>
       <c r="F120" s="1">
         <f>MIN(F$2:F$117)</f>
-        <v>1.0799999999999983</v>
+        <v>1.4000000000000021</v>
       </c>
       <c r="G120" s="1">
         <f>MIN(G$2:G$117)</f>
-        <v>1.0799999999999983</v>
+        <v>1.0599999999999987</v>
       </c>
       <c r="I120" s="6" t="s">
         <v>12</v>
@@ -8468,11 +8476,11 @@
       </c>
       <c r="F121" s="2">
         <f>MEDIAN(F$2:F$117)</f>
-        <v>1.9350000000000005</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="G121" s="2">
         <f>MEDIAN(G$2:G$117)</f>
-        <v>1.9400000000000013</v>
+        <v>2.0199999999999996</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -8485,11 +8493,11 @@
       </c>
       <c r="F122" s="2">
         <f>AVERAGE(F$2:F$117)</f>
-        <v>1.9422222222222219</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="G122" s="2">
         <f>AVERAGE(G$2:G$117)</f>
-        <v>1.8899999999999995</v>
+        <v>1.9762499999999998</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -8502,11 +8510,11 @@
       </c>
       <c r="F123" s="1">
         <f>MAX(F$2:F$117)</f>
-        <v>3.3200000000000003</v>
+        <v>2.5199999999999996</v>
       </c>
       <c r="G123" s="1">
         <f>MAX(G$2:G$117)</f>
-        <v>2.5199999999999996</v>
+        <v>2.5800000000000018</v>
       </c>
     </row>
   </sheetData>
